--- a/BackEnd/public/table2.xlsx
+++ b/BackEnd/public/table2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\tablevis\BackEnd\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i_rin/Desktop/tablevis/BackEnd/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88660513-0E24-4865-A36D-58022DFC1C3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B31EE-68FA-A24E-A439-58B578150AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12012" xr2:uid="{2EFAC2C9-10E9-47BE-B617-40AF9808DAEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{2EFAC2C9-10E9-47BE-B617-40AF9808DAEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>2013</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Nintendo DS (DS)</t>
   </si>
   <si>
-    <t>Nintendo Entertainment System (NES)</t>
-  </si>
-  <si>
     <t>Nintendo Switch (NS)</t>
   </si>
   <si>
@@ -90,20 +87,10 @@
     <t>Wii U (WiiU)</t>
   </si>
   <si>
-    <t>Sony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayStation 2 (PS2)</t>
-  </si>
-  <si>
     <t>PlayStation 3 (PS3)</t>
   </si>
   <si>
     <t>PlayStation 4 (PS4)</t>
-  </si>
-  <si>
-    <t>PlayStation Portable (PSP)</t>
   </si>
   <si>
     <t>PlayStation Vita (PSV)</t>
@@ -133,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,18 +263,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,7 +272,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,11 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,74 +613,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D183D6-0C77-44FB-8CFA-EC3E3E690E7B}">
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13" t="s">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13" t="s">
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="14"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="10"/>
     </row>
-    <row r="2" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+    <row r="2" spans="1:35" ht="16" thickBot="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -791,11 +779,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:35">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -898,11 +886,11 @@
         <v>9.9999999999980105</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>2090</v>
@@ -1001,9 +989,9 @@
         <v>19.999999999999574</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1104,11 +1092,11 @@
         <v>70.000000000000284</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5">
         <v>309.99999999999983</v>
@@ -1207,9 +1195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1312,11 +1300,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1415,9 +1403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1518,11 +1506,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5">
         <v>0</v>
@@ -1621,9 +1609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1659,8 +1647,8 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
+      <c r="N11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -1681,56 +1669,56 @@
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="V11" s="5">
-        <v>0</v>
+        <v>490.00000000000011</v>
       </c>
       <c r="W11" s="5">
-        <v>0</v>
+        <v>679.99999999999977</v>
       </c>
       <c r="X11" s="5">
-        <v>0</v>
+        <v>1790</v>
       </c>
       <c r="Y11" s="5">
-        <v>0</v>
+        <v>770.00000000000045</v>
       </c>
       <c r="Z11" s="5">
-        <v>0</v>
+        <v>599.99999999999966</v>
       </c>
       <c r="AA11" s="5">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="AB11" s="5">
-        <v>0</v>
+        <v>2280.0000000000005</v>
       </c>
       <c r="AC11" s="5">
-        <v>0</v>
+        <v>859.99999999999943</v>
       </c>
       <c r="AD11" s="5">
-        <v>0</v>
+        <v>660.00000000000011</v>
       </c>
       <c r="AE11" s="5">
-        <v>0</v>
+        <v>1599.9999999999995</v>
       </c>
       <c r="AF11" s="5">
-        <v>0</v>
+        <v>2450.0000000000009</v>
       </c>
       <c r="AG11" s="5">
-        <v>0</v>
+        <v>969.99999999999886</v>
       </c>
       <c r="AH11" s="5">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="AI11" s="6">
-        <v>0</v>
+        <v>1740.000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -1784,54 +1772,54 @@
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>420.00000000000006</v>
       </c>
       <c r="W12" s="5">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="X12" s="5">
-        <v>0</v>
+        <v>1640.0000000000002</v>
       </c>
       <c r="Y12" s="5">
-        <v>0</v>
+        <v>620.00000000000011</v>
       </c>
       <c r="Z12" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AA12" s="5">
-        <v>0</v>
+        <v>629.99999999999989</v>
       </c>
       <c r="AB12" s="5">
-        <v>0</v>
+        <v>1649.9999999999995</v>
       </c>
       <c r="AC12" s="5">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AD12" s="5">
-        <v>0</v>
+        <v>599.99999999999966</v>
       </c>
       <c r="AE12" s="5">
-        <v>0</v>
+        <v>1780.0000000000011</v>
       </c>
       <c r="AF12" s="5">
-        <v>0</v>
+        <v>1769.9999999999995</v>
       </c>
       <c r="AG12" s="5">
-        <v>0</v>
+        <v>1240.0000000000002</v>
       </c>
       <c r="AH12" s="5">
-        <v>0</v>
+        <v>1519.9999999999995</v>
       </c>
       <c r="AI12" s="6">
-        <v>0</v>
+        <v>1259.9999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1887,56 +1875,56 @@
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="X13" s="5">
-        <v>0</v>
+        <v>2690</v>
       </c>
       <c r="Y13" s="5">
-        <v>0</v>
+        <v>950.00000000000023</v>
       </c>
       <c r="Z13" s="5">
-        <v>0</v>
+        <v>729.99999999999955</v>
       </c>
       <c r="AA13" s="5">
-        <v>0</v>
+        <v>880.0000000000008</v>
       </c>
       <c r="AB13" s="5">
-        <v>0</v>
+        <v>3349.9999999999995</v>
       </c>
       <c r="AC13" s="5">
-        <v>0</v>
+        <v>1410.0000000000002</v>
       </c>
       <c r="AD13" s="5">
-        <v>0</v>
+        <v>990.00000000000023</v>
       </c>
       <c r="AE13" s="5">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="AF13" s="5">
-        <v>0</v>
+        <v>3210.0000000000009</v>
       </c>
       <c r="AG13" s="5">
-        <v>0</v>
+        <v>2509.9999999999982</v>
       </c>
       <c r="AH13" s="5">
-        <v>0</v>
+        <v>1470.0000000000025</v>
       </c>
       <c r="AI13" s="6">
-        <v>0</v>
+        <v>2549.9999999999973</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -1990,73 +1978,73 @@
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="V14" s="5">
-        <v>0</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="W14" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="X14" s="5">
-        <v>0</v>
+        <v>430.00000000000006</v>
       </c>
       <c r="Y14" s="5">
-        <v>0</v>
+        <v>409.99999999999994</v>
       </c>
       <c r="Z14" s="5">
-        <v>0</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="AA14" s="5">
-        <v>0</v>
+        <v>379.99999999999989</v>
       </c>
       <c r="AB14" s="5">
-        <v>0</v>
+        <v>1240.0000000000002</v>
       </c>
       <c r="AC14" s="5">
-        <v>0</v>
+        <v>299.99999999999983</v>
       </c>
       <c r="AD14" s="5">
-        <v>0</v>
+        <v>379.99999999999989</v>
       </c>
       <c r="AE14" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AF14" s="5">
-        <v>0</v>
+        <v>1400.0000000000005</v>
       </c>
       <c r="AG14" s="5">
-        <v>0</v>
+        <v>839.99999999999989</v>
       </c>
       <c r="AH14" s="5">
-        <v>0</v>
+        <v>1109.9999999999995</v>
       </c>
       <c r="AI14" s="6">
-        <v>0</v>
+        <v>900.00000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>410.00000000000369</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>509.99999999999801</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>149.99999999999858</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>140.00000000000057</v>
       </c>
       <c r="H15" s="5">
-        <v>0</v>
+        <v>280.00000000000114</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2073,8 +2061,8 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>32</v>
+      <c r="N15" s="5">
+        <v>0</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
@@ -2095,71 +2083,71 @@
         <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>490.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>679.99999999999977</v>
+        <v>130.00000000000256</v>
       </c>
       <c r="X15" s="5">
-        <v>1790</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
-        <v>770.00000000000045</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <v>599.99999999999966</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="5">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="5">
-        <v>2280.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="5">
-        <v>859.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="5">
-        <v>660.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="5">
-        <v>1599.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>2450.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="5">
-        <v>969.99999999999886</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="5">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="6">
-        <v>1740.000000000002</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>49.999999999998934</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>20.00000000000135</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -2168,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -2198,83 +2186,83 @@
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>420.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>1640.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <v>620.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <v>629.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>1649.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>599.99999999999966</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
-        <v>1780.0000000000011</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <v>1769.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="5">
-        <v>1240.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="5">
-        <v>1519.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="6">
-        <v>1259.9999999999998</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>560.00000000000227</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>179.99999999999972</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>159.99999999999659</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>120.00000000000455</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
+        <v>209.99999999999375</v>
       </c>
       <c r="I17" s="5">
-        <v>0</v>
+        <v>60.000000000002274</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>39.999999999999147</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <v>60.000000000002274</v>
       </c>
       <c r="L17" s="5">
-        <v>0</v>
+        <v>49.999999999997158</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2283,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <v>10.000000000005116</v>
       </c>
       <c r="P17" s="5">
         <v>0</v>
@@ -2301,62 +2289,62 @@
         <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>1090</v>
+        <v>129.99999999999545</v>
       </c>
       <c r="X17" s="5">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <v>950.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>729.99999999999955</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="5">
-        <v>880.0000000000008</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <v>3349.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="5">
-        <v>1410.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="5">
-        <v>990.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="5">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="5">
-        <v>3210.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="5">
-        <v>2509.9999999999982</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="5">
-        <v>1470.0000000000025</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="6">
-        <v>2549.9999999999973</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>39.999999999999147</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>29.999999999999361</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2404,118 +2392,118 @@
         <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>300.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>360</v>
+        <v>200.00000000000108</v>
       </c>
       <c r="X18" s="5">
-        <v>430.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
-        <v>409.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>300.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="5">
-        <v>379.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="5">
-        <v>1240.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="5">
-        <v>299.99999999999983</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="5">
-        <v>379.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="5">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="5">
-        <v>1400.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="5">
-        <v>839.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="5">
-        <v>1109.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="6">
-        <v>900.00000000000034</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5">
-        <v>410.00000000000369</v>
+        <v>290.00000000000006</v>
       </c>
       <c r="E19" s="5">
-        <v>509.99999999999801</v>
+        <v>89.999999999999972</v>
       </c>
       <c r="F19" s="5">
-        <v>149.99999999999858</v>
+        <v>89.999999999999972</v>
       </c>
       <c r="G19" s="5">
-        <v>140.00000000000057</v>
+        <v>130</v>
       </c>
       <c r="H19" s="5">
-        <v>280.00000000000114</v>
+        <v>360</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>110.0000000000001</v>
       </c>
       <c r="J19" s="5">
-        <v>0</v>
+        <v>339.99999999999989</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>100.00000000000009</v>
       </c>
       <c r="L19" s="5">
-        <v>0</v>
+        <v>380.00000000000011</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>109.99999999999987</v>
       </c>
       <c r="N19" s="5">
-        <v>0</v>
+        <v>100.00000000000009</v>
       </c>
       <c r="O19" s="5">
-        <v>0</v>
+        <v>189.99999999999994</v>
       </c>
       <c r="P19" s="5">
-        <v>0</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="Q19" s="5">
-        <v>0</v>
+        <v>180.00000000000017</v>
       </c>
       <c r="R19" s="5">
-        <v>0</v>
+        <v>40.000000000000036</v>
       </c>
       <c r="S19" s="5">
-        <v>0</v>
+        <v>89.999999999999858</v>
       </c>
       <c r="T19" s="5">
-        <v>0</v>
+        <v>140.00000000000011</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="V19" s="5">
-        <v>0</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="W19" s="5">
-        <v>130.00000000000256</v>
+        <v>10.000000000000231</v>
       </c>
       <c r="X19" s="5">
         <v>0</v>
@@ -2554,62 +2542,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5">
-        <v>49.999999999998934</v>
+        <v>510</v>
       </c>
       <c r="E20" s="5">
-        <v>20.00000000000135</v>
+        <v>110.0000000000001</v>
       </c>
       <c r="F20" s="5">
-        <v>19.999999999999574</v>
+        <v>130</v>
       </c>
       <c r="G20" s="5">
-        <v>9.9999999999997868</v>
+        <v>89.999999999999858</v>
       </c>
       <c r="H20" s="5">
-        <v>9.9999999999997868</v>
+        <v>500</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>100.00000000000009</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
+        <v>139.99999999999991</v>
       </c>
       <c r="K20" s="5">
-        <v>9.9999999999997868</v>
+        <v>90.000000000000085</v>
       </c>
       <c r="L20" s="5">
-        <v>0</v>
+        <v>240.00000000000023</v>
       </c>
       <c r="M20" s="5">
-        <v>0</v>
+        <v>99.999999999999645</v>
       </c>
       <c r="N20" s="5">
-        <v>0</v>
+        <v>150.00000000000034</v>
       </c>
       <c r="O20" s="5">
-        <v>0</v>
+        <v>199.99999999999974</v>
       </c>
       <c r="P20" s="5">
-        <v>0</v>
+        <v>410.00000000000011</v>
       </c>
       <c r="Q20" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="R20" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="S20" s="5">
-        <v>0</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="T20" s="5">
-        <v>0</v>
+        <v>49.999999999999822</v>
       </c>
       <c r="U20" s="5">
         <v>0</v>
@@ -2618,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>0</v>
+        <v>10.000000000000231</v>
       </c>
       <c r="X20" s="5">
         <v>0</v>
@@ -2657,71 +2645,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5">
-        <v>560.00000000000227</v>
+        <v>409.99999999999994</v>
       </c>
       <c r="E21" s="5">
-        <v>179.99999999999972</v>
+        <v>130.00000000000011</v>
       </c>
       <c r="F21" s="5">
-        <v>159.99999999999659</v>
+        <v>139.99999999999991</v>
       </c>
       <c r="G21" s="5">
-        <v>120.00000000000455</v>
+        <v>189.99999999999994</v>
       </c>
       <c r="H21" s="5">
-        <v>209.99999999999375</v>
+        <v>850.00000000000034</v>
       </c>
       <c r="I21" s="5">
-        <v>60.000000000002274</v>
+        <v>189.99999999999994</v>
       </c>
       <c r="J21" s="5">
-        <v>39.999999999999147</v>
+        <v>359.99999999999989</v>
       </c>
       <c r="K21" s="5">
-        <v>60.000000000002274</v>
+        <v>330.00000000000006</v>
       </c>
       <c r="L21" s="5">
-        <v>49.999999999997158</v>
+        <v>910.00000000000011</v>
       </c>
       <c r="M21" s="5">
-        <v>0</v>
+        <v>219.99999999999974</v>
       </c>
       <c r="N21" s="5">
-        <v>0</v>
+        <v>160.00000000000014</v>
       </c>
       <c r="O21" s="5">
-        <v>10.000000000005116</v>
+        <v>280.00000000000023</v>
       </c>
       <c r="P21" s="5">
-        <v>0</v>
+        <v>829.9999999999992</v>
       </c>
       <c r="Q21" s="5">
-        <v>0</v>
+        <v>160.00000000000014</v>
       </c>
       <c r="R21" s="5">
-        <v>0</v>
+        <v>100.00000000000054</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="T21" s="5">
-        <v>0</v>
+        <v>89.999999999999858</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="V21" s="5">
-        <v>0</v>
+        <v>10.000000000000675</v>
       </c>
       <c r="W21" s="5">
-        <v>129.99999999999545</v>
+        <v>0</v>
       </c>
       <c r="X21" s="5">
         <v>0</v>
@@ -2760,53 +2748,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
+    <row r="22" spans="1:35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5">
-        <v>39.999999999999147</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5">
-        <v>29.999999999999361</v>
+        <v>30</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
+        <v>39.999999999999979</v>
       </c>
       <c r="K22" s="5">
-        <v>0</v>
+        <v>20.000000000000018</v>
       </c>
       <c r="L22" s="5">
-        <v>0</v>
+        <v>79.999999999999957</v>
       </c>
       <c r="M22" s="5">
-        <v>0</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="N22" s="5">
-        <v>0</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="O22" s="5">
-        <v>0</v>
+        <v>49.999999999999936</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="5">
-        <v>0</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -2818,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="V22" s="5">
         <v>0</v>
       </c>
       <c r="W22" s="5">
-        <v>200.00000000000108</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="X22" s="5">
         <v>0</v>
@@ -2863,73 +2851,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5">
-        <v>290.00000000000006</v>
+        <v>1329.9999999999982</v>
       </c>
       <c r="E23" s="5">
-        <v>89.999999999999972</v>
+        <v>2010.0000000000016</v>
       </c>
       <c r="F23" s="5">
-        <v>89.999999999999972</v>
+        <v>699.99999999999932</v>
       </c>
       <c r="G23" s="5">
-        <v>130</v>
+        <v>669.99999999999818</v>
       </c>
       <c r="H23" s="5">
-        <v>360</v>
+        <v>719.99999999999886</v>
       </c>
       <c r="I23" s="5">
-        <v>110.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>339.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>100.00000000000009</v>
+        <v>120.00000000000455</v>
       </c>
       <c r="L23" s="5">
-        <v>380.00000000000011</v>
+        <v>729.99999999999682</v>
       </c>
       <c r="M23" s="5">
-        <v>109.99999999999987</v>
+        <v>179.99999999999972</v>
       </c>
       <c r="N23" s="5">
-        <v>100.00000000000009</v>
+        <v>70.000000000000284</v>
       </c>
       <c r="O23" s="5">
-        <v>189.99999999999994</v>
+        <v>120.00000000000455</v>
       </c>
       <c r="P23" s="5">
-        <v>459.99999999999994</v>
+        <v>109.99999999999943</v>
       </c>
       <c r="Q23" s="5">
-        <v>180.00000000000017</v>
+        <v>49.999999999997158</v>
       </c>
       <c r="R23" s="5">
-        <v>40.000000000000036</v>
+        <v>49.999999999997158</v>
       </c>
       <c r="S23" s="5">
-        <v>89.999999999999858</v>
+        <v>40.000000000006253</v>
       </c>
       <c r="T23" s="5">
-        <v>140.00000000000011</v>
+        <v>59.999999999995168</v>
       </c>
       <c r="U23" s="5">
-        <v>29.999999999999805</v>
+        <v>20.000000000003126</v>
       </c>
       <c r="V23" s="5">
-        <v>29.999999999999805</v>
+        <v>9.9999999999980105</v>
       </c>
       <c r="W23" s="5">
-        <v>10.000000000000231</v>
+        <v>9.9999999999980105</v>
       </c>
       <c r="X23" s="5">
         <v>0</v>
@@ -2947,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="5">
-        <v>0</v>
+        <v>440.00000000000483</v>
       </c>
       <c r="AD23" s="5">
         <v>0</v>
@@ -2968,71 +2956,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5">
-        <v>510</v>
+        <v>380.0000000000008</v>
       </c>
       <c r="E24" s="5">
-        <v>110.0000000000001</v>
+        <v>179.99999999999972</v>
       </c>
       <c r="F24" s="5">
-        <v>130</v>
+        <v>179.99999999999972</v>
       </c>
       <c r="G24" s="5">
-        <v>89.999999999999858</v>
+        <v>109.99999999999943</v>
       </c>
       <c r="H24" s="5">
-        <v>500</v>
+        <v>259.99999999999977</v>
       </c>
       <c r="I24" s="5">
-        <v>100.00000000000009</v>
+        <v>140.00000000000057</v>
       </c>
       <c r="J24" s="5">
-        <v>139.99999999999991</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="K24" s="5">
-        <v>90.000000000000085</v>
+        <v>70.000000000000284</v>
       </c>
       <c r="L24" s="5">
-        <v>240.00000000000023</v>
+        <v>99.999999999999645</v>
       </c>
       <c r="M24" s="5">
-        <v>99.999999999999645</v>
+        <v>60.000000000000497</v>
       </c>
       <c r="N24" s="5">
-        <v>150.00000000000034</v>
+        <v>29.999999999999361</v>
       </c>
       <c r="O24" s="5">
-        <v>199.99999999999974</v>
+        <v>40.000000000000924</v>
       </c>
       <c r="P24" s="5">
-        <v>410.00000000000011</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="Q24" s="5">
-        <v>80.000000000000071</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="R24" s="5">
-        <v>80.000000000000071</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="S24" s="5">
-        <v>29.999999999999805</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="T24" s="5">
-        <v>49.999999999999822</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="U24" s="5">
-        <v>0</v>
+        <v>10.000000000001563</v>
       </c>
       <c r="V24" s="5">
-        <v>0</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="W24" s="5">
-        <v>10.000000000000231</v>
+        <v>0</v>
       </c>
       <c r="X24" s="5">
         <v>0</v>
@@ -3071,218 +3059,216 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5">
-        <v>409.99999999999994</v>
+        <v>960.00000000000091</v>
       </c>
       <c r="E25" s="5">
-        <v>130.00000000000011</v>
+        <v>489.99999999999841</v>
       </c>
       <c r="F25" s="5">
-        <v>139.99999999999991</v>
+        <v>379.99999999999898</v>
       </c>
       <c r="G25" s="5">
-        <v>189.99999999999994</v>
+        <v>390.00000000000057</v>
       </c>
       <c r="H25" s="5">
-        <v>850.00000000000034</v>
+        <v>870.00000000000102</v>
       </c>
       <c r="I25" s="5">
-        <v>189.99999999999994</v>
+        <v>160.00000000000014</v>
       </c>
       <c r="J25" s="5">
-        <v>359.99999999999989</v>
+        <v>120.00000000000099</v>
       </c>
       <c r="K25" s="5">
-        <v>330.00000000000006</v>
+        <v>169.99999999999815</v>
       </c>
       <c r="L25" s="5">
-        <v>910.00000000000011</v>
+        <v>289.99999999999915</v>
       </c>
       <c r="M25" s="5">
-        <v>219.99999999999974</v>
+        <v>100.00000000000142</v>
       </c>
       <c r="N25" s="5">
+        <v>19.999999999999574</v>
+      </c>
+      <c r="O25" s="5">
+        <v>30.000000000001137</v>
+      </c>
+      <c r="P25" s="5">
+        <v>70.000000000000284</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>29.999999999997584</v>
+      </c>
+      <c r="R25" s="5">
+        <v>30.000000000001137</v>
+      </c>
+      <c r="S25" s="5">
+        <v>30.000000000001137</v>
+      </c>
+      <c r="T25" s="5">
+        <v>39.999999999999147</v>
+      </c>
+      <c r="U25" s="5">
+        <v>10.000000000001563</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5">
+        <v>490.00000000000023</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1300.0000000000007</v>
+      </c>
+      <c r="F26" s="5">
+        <v>390.00000000000057</v>
+      </c>
+      <c r="G26" s="5">
+        <v>279.99999999999937</v>
+      </c>
+      <c r="H26" s="5">
+        <v>119.99999999999922</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>360.00000000000119</v>
+      </c>
+      <c r="K26" s="5">
         <v>160.00000000000014</v>
       </c>
-      <c r="O25" s="5">
-        <v>280.00000000000023</v>
-      </c>
-      <c r="P25" s="5">
-        <v>829.9999999999992</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>160.00000000000014</v>
-      </c>
-      <c r="R25" s="5">
-        <v>100.00000000000054</v>
-      </c>
-      <c r="S25" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="T25" s="5">
-        <v>89.999999999999858</v>
-      </c>
-      <c r="U25" s="5">
+      <c r="L26" s="5">
+        <v>209.99999999999909</v>
+      </c>
+      <c r="M26" s="5">
+        <v>99.999999999999645</v>
+      </c>
+      <c r="N26" s="5">
+        <v>40.000000000000924</v>
+      </c>
+      <c r="O26" s="5">
+        <v>59.999999999998721</v>
+      </c>
+      <c r="P26" s="5">
+        <v>50.000000000000711</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>29.999999999999361</v>
+      </c>
+      <c r="R26" s="5">
+        <v>20.00000000000135</v>
+      </c>
+      <c r="S26" s="5">
         <v>19.999999999999574</v>
       </c>
-      <c r="V25" s="5">
-        <v>10.000000000000675</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="6">
+      <c r="T26" s="5">
+        <v>29.999999999999361</v>
+      </c>
+      <c r="U26" s="5">
+        <v>9.9999999999997868</v>
+      </c>
+      <c r="V26" s="5">
+        <v>10.000000000001563</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>69.999999999998508</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5">
-        <v>90</v>
-      </c>
-      <c r="E26" s="5">
-        <v>30</v>
-      </c>
-      <c r="F26" s="5">
-        <v>30</v>
-      </c>
-      <c r="G26" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="H26" s="5">
-        <v>139.99999999999997</v>
-      </c>
-      <c r="I26" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="J26" s="5">
-        <v>39.999999999999979</v>
-      </c>
-      <c r="K26" s="5">
-        <v>20.000000000000018</v>
-      </c>
-      <c r="L26" s="5">
-        <v>79.999999999999957</v>
-      </c>
-      <c r="M26" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="N26" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="O26" s="5">
-        <v>49.999999999999936</v>
-      </c>
-      <c r="P26" s="5">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
@@ -3291,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -3300,95 +3286,95 @@
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>649.99999999999989</v>
       </c>
       <c r="J27" s="5">
-        <v>0</v>
+        <v>929.99999999999977</v>
       </c>
       <c r="K27" s="5">
-        <v>0</v>
+        <v>2430.0000000000005</v>
       </c>
       <c r="L27" s="5">
-        <v>0</v>
+        <v>1479.9999999999995</v>
       </c>
       <c r="M27" s="5">
-        <v>0</v>
+        <v>1199.9999999999993</v>
       </c>
       <c r="N27" s="5">
-        <v>0</v>
+        <v>820.00000000000023</v>
       </c>
       <c r="O27" s="5">
-        <v>0</v>
+        <v>1360.0000000000011</v>
       </c>
       <c r="P27" s="5">
-        <v>0</v>
+        <v>3429.9999999999995</v>
       </c>
       <c r="Q27" s="5">
-        <v>0</v>
+        <v>1800.0000000000007</v>
       </c>
       <c r="R27" s="5">
-        <v>0</v>
+        <v>1129.9999999999991</v>
       </c>
       <c r="S27" s="5">
-        <v>0</v>
+        <v>1019.9999999999995</v>
       </c>
       <c r="T27" s="5">
-        <v>0</v>
+        <v>3330.0000000000018</v>
       </c>
       <c r="U27" s="5">
-        <v>0</v>
+        <v>1089.9999999999998</v>
       </c>
       <c r="V27" s="5">
-        <v>0</v>
+        <v>1989.9999999999984</v>
       </c>
       <c r="W27" s="5">
-        <v>0</v>
+        <v>1760.0000000000016</v>
       </c>
       <c r="X27" s="5">
-        <v>0</v>
+        <v>3489.9999999999986</v>
       </c>
       <c r="Y27" s="5">
-        <v>0</v>
+        <v>1649.9999999999986</v>
       </c>
       <c r="Z27" s="5">
-        <v>0</v>
+        <v>970.00000000000239</v>
       </c>
       <c r="AA27" s="5">
-        <v>0</v>
+        <v>1810.0000000000023</v>
       </c>
       <c r="AB27" s="5">
-        <v>0</v>
+        <v>2539.9999999999991</v>
       </c>
       <c r="AC27" s="5">
-        <v>0</v>
+        <v>1739.999999999995</v>
       </c>
       <c r="AD27" s="5">
-        <v>0</v>
+        <v>1490.000000000002</v>
       </c>
       <c r="AE27" s="5">
-        <v>0</v>
+        <v>1880.0000000000025</v>
       </c>
       <c r="AF27" s="5">
-        <v>0</v>
+        <v>1859.9999999999995</v>
       </c>
       <c r="AG27" s="5">
-        <v>0</v>
+        <v>1810.0000000000023</v>
       </c>
       <c r="AH27" s="5">
-        <v>0</v>
+        <v>1139.9999999999934</v>
       </c>
       <c r="AI27" s="6">
-        <v>0</v>
+        <v>560.00000000000227</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
@@ -3403,93 +3389,93 @@
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I28" s="5">
-        <v>0</v>
+        <v>259.99999999999994</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>90.000000000000085</v>
       </c>
       <c r="K28" s="5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L28" s="5">
-        <v>0</v>
+        <v>290.00000000000006</v>
       </c>
       <c r="M28" s="5">
-        <v>0</v>
+        <v>349.99999999999989</v>
       </c>
       <c r="N28" s="5">
-        <v>0</v>
+        <v>160.00000000000014</v>
       </c>
       <c r="O28" s="5">
-        <v>0</v>
+        <v>359.99999999999989</v>
       </c>
       <c r="P28" s="5">
-        <v>0</v>
+        <v>450.00000000000017</v>
       </c>
       <c r="Q28" s="5">
-        <v>0</v>
+        <v>349.99999999999966</v>
       </c>
       <c r="R28" s="5">
-        <v>0</v>
+        <v>310.00000000000006</v>
       </c>
       <c r="S28" s="5">
-        <v>0</v>
+        <v>310.00000000000006</v>
       </c>
       <c r="T28" s="5">
-        <v>0</v>
+        <v>900.00000000000034</v>
       </c>
       <c r="U28" s="5">
-        <v>0</v>
+        <v>349.99999999999966</v>
       </c>
       <c r="V28" s="5">
-        <v>0</v>
+        <v>280.00000000000023</v>
       </c>
       <c r="W28" s="5">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="X28" s="5">
-        <v>0</v>
+        <v>839.99999999999989</v>
       </c>
       <c r="Y28" s="5">
-        <v>0</v>
+        <v>410.00000000000011</v>
       </c>
       <c r="Z28" s="5">
-        <v>0</v>
+        <v>219.99999999999974</v>
       </c>
       <c r="AA28" s="5">
-        <v>0</v>
+        <v>280.00000000000023</v>
       </c>
       <c r="AB28" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AC28" s="5">
-        <v>0</v>
+        <v>399.99999999999949</v>
       </c>
       <c r="AD28" s="5">
-        <v>0</v>
+        <v>200.00000000000108</v>
       </c>
       <c r="AE28" s="5">
-        <v>0</v>
+        <v>199.99999999999929</v>
       </c>
       <c r="AF28" s="5">
-        <v>0</v>
+        <v>349.99999999999966</v>
       </c>
       <c r="AG28" s="5">
-        <v>0</v>
+        <v>280.00000000000114</v>
       </c>
       <c r="AH28" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="AI28" s="6">
-        <v>0</v>
+        <v>39.999999999999147</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
+    <row r="29" spans="1:35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
@@ -3506,101 +3492,101 @@
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
+        <v>870.00000000000011</v>
       </c>
       <c r="J29" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K29" s="5">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="L29" s="5">
-        <v>0</v>
+        <v>1889.9999999999998</v>
       </c>
       <c r="M29" s="5">
-        <v>0</v>
+        <v>850.00000000000057</v>
       </c>
       <c r="N29" s="5">
-        <v>0</v>
+        <v>719.99999999999886</v>
       </c>
       <c r="O29" s="5">
-        <v>0</v>
+        <v>1240.0000000000002</v>
       </c>
       <c r="P29" s="5">
-        <v>0</v>
+        <v>3620.0000000000009</v>
       </c>
       <c r="Q29" s="5">
-        <v>0</v>
+        <v>740.00000000000023</v>
       </c>
       <c r="R29" s="5">
-        <v>0</v>
+        <v>740.00000000000023</v>
       </c>
       <c r="S29" s="5">
-        <v>0</v>
+        <v>640.00000000000057</v>
       </c>
       <c r="T29" s="5">
-        <v>0</v>
+        <v>3209.9999999999973</v>
       </c>
       <c r="U29" s="5">
-        <v>0</v>
+        <v>880.0000000000025</v>
       </c>
       <c r="V29" s="5">
-        <v>0</v>
+        <v>910.00000000000011</v>
       </c>
       <c r="W29" s="5">
-        <v>0</v>
+        <v>929.99999999999977</v>
       </c>
       <c r="X29" s="5">
-        <v>0</v>
+        <v>3160</v>
       </c>
       <c r="Y29" s="5">
-        <v>0</v>
+        <v>1289.9999999999991</v>
       </c>
       <c r="Z29" s="5">
-        <v>0</v>
+        <v>739.99999999999841</v>
       </c>
       <c r="AA29" s="5">
-        <v>0</v>
+        <v>1150.000000000002</v>
       </c>
       <c r="AB29" s="5">
-        <v>0</v>
+        <v>2379.9999999999991</v>
       </c>
       <c r="AC29" s="5">
-        <v>0</v>
+        <v>1020.0000000000032</v>
       </c>
       <c r="AD29" s="5">
-        <v>0</v>
+        <v>759.99999999999795</v>
       </c>
       <c r="AE29" s="5">
-        <v>0</v>
+        <v>879.99999999999545</v>
       </c>
       <c r="AF29" s="5">
-        <v>0</v>
+        <v>1980.0000000000041</v>
       </c>
       <c r="AG29" s="5">
-        <v>0</v>
+        <v>990.00000000000205</v>
       </c>
       <c r="AH29" s="5">
-        <v>0</v>
+        <v>570.00000000000023</v>
       </c>
       <c r="AI29" s="6">
-        <v>0</v>
+        <v>419.9999999999946</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -3609,357 +3595,357 @@
         <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I30" s="5">
-        <v>0</v>
+        <v>190.00000000000006</v>
       </c>
       <c r="J30" s="5">
-        <v>0</v>
+        <v>459.99999999999994</v>
       </c>
       <c r="K30" s="5">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="L30" s="5">
-        <v>0</v>
+        <v>660.00000000000011</v>
       </c>
       <c r="M30" s="5">
-        <v>0</v>
+        <v>870.00000000000011</v>
       </c>
       <c r="N30" s="5">
-        <v>0</v>
+        <v>390.00000000000011</v>
       </c>
       <c r="O30" s="5">
-        <v>0</v>
+        <v>639.99999999999966</v>
       </c>
       <c r="P30" s="5">
-        <v>0</v>
+        <v>1320.0000000000002</v>
       </c>
       <c r="Q30" s="5">
-        <v>0</v>
+        <v>669.99999999999989</v>
       </c>
       <c r="R30" s="5">
-        <v>0</v>
+        <v>450.00000000000017</v>
       </c>
       <c r="S30" s="5">
-        <v>0</v>
+        <v>429.99999999999972</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
+        <v>1600.0000000000005</v>
       </c>
       <c r="U30" s="5">
-        <v>0</v>
+        <v>519.99999999999955</v>
       </c>
       <c r="V30" s="5">
-        <v>0</v>
+        <v>640.00000000000057</v>
       </c>
       <c r="W30" s="5">
-        <v>0</v>
+        <v>1319.9999999999984</v>
       </c>
       <c r="X30" s="5">
-        <v>0</v>
+        <v>1760.0000000000016</v>
       </c>
       <c r="Y30" s="5">
-        <v>0</v>
+        <v>629.99999999999898</v>
       </c>
       <c r="Z30" s="5">
-        <v>0</v>
+        <v>339.99999999999989</v>
       </c>
       <c r="AA30" s="5">
-        <v>0</v>
+        <v>780.00000000000114</v>
       </c>
       <c r="AB30" s="5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" s="5">
-        <v>0</v>
+        <v>660.00000000000011</v>
       </c>
       <c r="AD30" s="5">
-        <v>0</v>
+        <v>719.99999999999886</v>
       </c>
       <c r="AE30" s="5">
-        <v>0</v>
+        <v>609.99999999999943</v>
       </c>
       <c r="AF30" s="5">
-        <v>0</v>
+        <v>699.99999999999932</v>
       </c>
       <c r="AG30" s="5">
-        <v>0</v>
+        <v>420.00000000000171</v>
       </c>
       <c r="AH30" s="5">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AI30" s="6">
-        <v>0</v>
+        <v>109.99999999999943</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11" t="s">
-        <v>23</v>
+    <row r="31" spans="1:35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="5">
-        <v>1329.9999999999982</v>
+        <v>169.99999999999994</v>
       </c>
       <c r="E31" s="5">
-        <v>2010.0000000000016</v>
+        <v>330.00000000000006</v>
       </c>
       <c r="F31" s="5">
-        <v>699.99999999999932</v>
+        <v>130.00000000000011</v>
       </c>
       <c r="G31" s="5">
-        <v>669.99999999999818</v>
+        <v>229.99999999999977</v>
       </c>
       <c r="H31" s="5">
-        <v>719.99999999999886</v>
+        <v>390.00000000000011</v>
       </c>
       <c r="I31" s="5">
-        <v>0</v>
+        <v>109.99999999999987</v>
       </c>
       <c r="J31" s="5">
-        <v>0</v>
+        <v>70.000000000000284</v>
       </c>
       <c r="K31" s="5">
-        <v>120.00000000000455</v>
+        <v>89.999999999999858</v>
       </c>
       <c r="L31" s="5">
-        <v>729.99999999999682</v>
+        <v>169.99999999999994</v>
       </c>
       <c r="M31" s="5">
-        <v>179.99999999999972</v>
+        <v>149.99999999999991</v>
       </c>
       <c r="N31" s="5">
+        <v>1080</v>
+      </c>
+      <c r="O31" s="5">
+        <v>240.00000000000023</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>129.99999999999989</v>
+      </c>
+      <c r="R31" s="5">
+        <v>139.99999999999969</v>
+      </c>
+      <c r="S31" s="5">
+        <v>140.00000000000057</v>
+      </c>
+      <c r="T31" s="5">
+        <v>269.99999999999955</v>
+      </c>
+      <c r="U31" s="5">
+        <v>60.000000000000497</v>
+      </c>
+      <c r="V31" s="5">
+        <v>29.999999999999361</v>
+      </c>
+      <c r="W31" s="5">
+        <v>40.000000000000036</v>
+      </c>
+      <c r="X31" s="5">
+        <v>50.000000000000711</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>9.9999999999997868</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5">
+        <v>270</v>
+      </c>
+      <c r="E32" s="5">
+        <v>229.99999999999997</v>
+      </c>
+      <c r="F32" s="5">
+        <v>229.99999999999997</v>
+      </c>
+      <c r="G32" s="5">
+        <v>179.99999999999994</v>
+      </c>
+      <c r="H32" s="5">
+        <v>579.99999999999989</v>
+      </c>
+      <c r="I32" s="5">
+        <v>330.00000000000006</v>
+      </c>
+      <c r="J32" s="5">
+        <v>270</v>
+      </c>
+      <c r="K32" s="5">
+        <v>180.00000000000017</v>
+      </c>
+      <c r="L32" s="5">
+        <v>290.00000000000006</v>
+      </c>
+      <c r="M32" s="5">
+        <v>270</v>
+      </c>
+      <c r="N32" s="5">
+        <v>149.99999999999991</v>
+      </c>
+      <c r="O32" s="5">
+        <v>209.99999999999997</v>
+      </c>
+      <c r="P32" s="5">
+        <v>410.00000000000011</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>240.00000000000023</v>
+      </c>
+      <c r="R32" s="5">
+        <v>169.99999999999994</v>
+      </c>
+      <c r="S32" s="5">
+        <v>89.999999999999858</v>
+      </c>
+      <c r="T32" s="5">
+        <v>280.00000000000023</v>
+      </c>
+      <c r="U32" s="5">
+        <v>89.999999999999858</v>
+      </c>
+      <c r="V32" s="5">
+        <v>49.999999999999822</v>
+      </c>
+      <c r="W32" s="5">
         <v>70.000000000000284</v>
       </c>
-      <c r="O31" s="5">
-        <v>120.00000000000455</v>
-      </c>
-      <c r="P31" s="5">
-        <v>109.99999999999943</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>49.999999999997158</v>
-      </c>
-      <c r="R31" s="5">
-        <v>49.999999999997158</v>
-      </c>
-      <c r="S31" s="5">
-        <v>40.000000000006253</v>
-      </c>
-      <c r="T31" s="5">
-        <v>59.999999999995168</v>
-      </c>
-      <c r="U31" s="5">
-        <v>20.000000000003126</v>
-      </c>
-      <c r="V31" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="W31" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>440.00000000000483</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="6">
+      <c r="X32" s="5">
+        <v>89.999999999999858</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>59.999999999999609</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>40.000000000000036</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>30.000000000000249</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>19.999999999999574</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>30.000000000000249</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="5">
-        <v>380.0000000000008</v>
-      </c>
-      <c r="E32" s="5">
-        <v>179.99999999999972</v>
-      </c>
-      <c r="F32" s="5">
-        <v>179.99999999999972</v>
-      </c>
-      <c r="G32" s="5">
-        <v>109.99999999999943</v>
-      </c>
-      <c r="H32" s="5">
-        <v>259.99999999999977</v>
-      </c>
-      <c r="I32" s="5">
-        <v>140.00000000000057</v>
-      </c>
-      <c r="J32" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="K32" s="5">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="L32" s="5">
-        <v>99.999999999999645</v>
-      </c>
-      <c r="M32" s="5">
-        <v>60.000000000000497</v>
-      </c>
-      <c r="N32" s="5">
-        <v>29.999999999999361</v>
-      </c>
-      <c r="O32" s="5">
-        <v>40.000000000000924</v>
-      </c>
-      <c r="P32" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="R32" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="S32" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="T32" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="U32" s="5">
-        <v>10.000000000001563</v>
-      </c>
-      <c r="V32" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="5">
-        <v>960.00000000000091</v>
+        <v>140.00000000000011</v>
       </c>
       <c r="E33" s="5">
-        <v>489.99999999999841</v>
+        <v>69.999999999999844</v>
       </c>
       <c r="F33" s="5">
-        <v>379.99999999999898</v>
+        <v>110.0000000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>390.00000000000057</v>
+        <v>79.999999999999844</v>
       </c>
       <c r="H33" s="5">
-        <v>870.00000000000102</v>
+        <v>260</v>
       </c>
       <c r="I33" s="5">
-        <v>160.00000000000014</v>
+        <v>30.000000000000028</v>
       </c>
       <c r="J33" s="5">
-        <v>120.00000000000099</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="K33" s="5">
-        <v>169.99999999999815</v>
+        <v>49.999999999999822</v>
       </c>
       <c r="L33" s="5">
-        <v>289.99999999999915</v>
+        <v>190.0000000000004</v>
       </c>
       <c r="M33" s="5">
-        <v>100.00000000000142</v>
+        <v>69.999999999999844</v>
       </c>
       <c r="N33" s="5">
-        <v>19.999999999999574</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="O33" s="5">
-        <v>30.000000000001137</v>
+        <v>30.000000000000249</v>
       </c>
       <c r="P33" s="5">
-        <v>70.000000000000284</v>
+        <v>100.00000000000009</v>
       </c>
       <c r="Q33" s="5">
-        <v>29.999999999997584</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="R33" s="5">
-        <v>30.000000000001137</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>30.000000000001137</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="T33" s="5">
-        <v>39.999999999999147</v>
+        <v>20.000000000000018</v>
       </c>
       <c r="U33" s="5">
-        <v>10.000000000001563</v>
+        <v>10.000000000000231</v>
       </c>
       <c r="V33" s="5">
         <v>0</v>
@@ -3968,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="5">
-        <v>0</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="Y33" s="5">
         <v>0</v>
@@ -3980,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="5">
-        <v>0</v>
+        <v>10.000000000000231</v>
       </c>
       <c r="AC33" s="5">
         <v>0</v>
@@ -3989,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="AF33" s="5">
         <v>0</v>
@@ -4004,77 +3990,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
+    <row r="34" spans="1:35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5">
-        <v>490.00000000000023</v>
+        <v>60</v>
       </c>
       <c r="E34" s="5">
-        <v>1300.0000000000007</v>
+        <v>140</v>
       </c>
       <c r="F34" s="5">
-        <v>390.00000000000057</v>
+        <v>70</v>
       </c>
       <c r="G34" s="5">
-        <v>279.99999999999937</v>
+        <v>40.000000000000036</v>
       </c>
       <c r="H34" s="5">
-        <v>119.99999999999922</v>
+        <v>159.99999999999991</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>200.00000000000006</v>
       </c>
       <c r="J34" s="5">
-        <v>360.00000000000119</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="K34" s="5">
-        <v>160.00000000000014</v>
+        <v>70.000000000000057</v>
       </c>
       <c r="L34" s="5">
-        <v>209.99999999999909</v>
+        <v>149.99999999999991</v>
       </c>
       <c r="M34" s="5">
-        <v>99.999999999999645</v>
+        <v>120.00000000000011</v>
       </c>
       <c r="N34" s="5">
-        <v>40.000000000000924</v>
+        <v>439.99999999999994</v>
       </c>
       <c r="O34" s="5">
-        <v>59.999999999998721</v>
+        <v>120.00000000000011</v>
       </c>
       <c r="P34" s="5">
-        <v>50.000000000000711</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="Q34" s="5">
-        <v>29.999999999999361</v>
+        <v>109.99999999999987</v>
       </c>
       <c r="R34" s="5">
-        <v>20.00000000000135</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="S34" s="5">
-        <v>19.999999999999574</v>
+        <v>50.00000000000027</v>
       </c>
       <c r="T34" s="5">
-        <v>29.999999999999361</v>
+        <v>139.99999999999969</v>
       </c>
       <c r="U34" s="5">
-        <v>9.9999999999997868</v>
+        <v>50.00000000000027</v>
       </c>
       <c r="V34" s="5">
-        <v>10.000000000001563</v>
+        <v>29.999999999999805</v>
       </c>
       <c r="W34" s="5">
-        <v>0</v>
+        <v>20.000000000000018</v>
       </c>
       <c r="X34" s="5">
-        <v>0</v>
+        <v>20.000000000000018</v>
       </c>
       <c r="Y34" s="5">
-        <v>0</v>
+        <v>10.000000000000231</v>
       </c>
       <c r="Z34" s="5">
         <v>0</v>
@@ -4086,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="5">
-        <v>69.999999999998508</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="5">
         <v>0</v>
@@ -4107,505 +4093,507 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="1:35">
+      <c r="A35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="5">
-        <v>0</v>
+        <v>669.99999999999818</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>980.00000000000045</v>
       </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>399.99999999999858</v>
       </c>
       <c r="G35" s="5">
-        <v>0</v>
+        <v>310.00000000000227</v>
       </c>
       <c r="H35" s="5">
-        <v>2180</v>
+        <v>359.99999999999943</v>
       </c>
       <c r="I35" s="5">
-        <v>649.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>929.99999999999977</v>
+        <v>59.999999999998721</v>
       </c>
       <c r="K35" s="5">
-        <v>2430.0000000000005</v>
+        <v>140.00000000000057</v>
       </c>
       <c r="L35" s="5">
-        <v>1479.9999999999995</v>
+        <v>170.00000000000171</v>
       </c>
       <c r="M35" s="5">
-        <v>1199.9999999999993</v>
+        <v>70.000000000000284</v>
       </c>
       <c r="N35" s="5">
-        <v>820.00000000000023</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="O35" s="5">
-        <v>1360.0000000000011</v>
+        <v>39.999999999999147</v>
       </c>
       <c r="P35" s="5">
-        <v>3429.9999999999995</v>
+        <v>50.000000000000711</v>
       </c>
       <c r="Q35" s="5">
-        <v>1800.0000000000007</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="R35" s="5">
-        <v>1129.9999999999991</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="S35" s="5">
-        <v>1019.9999999999995</v>
+        <v>9.9999999999980105</v>
       </c>
       <c r="T35" s="5">
-        <v>3330.0000000000018</v>
+        <v>30.000000000001137</v>
       </c>
       <c r="U35" s="5">
-        <v>1089.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="V35" s="5">
-        <v>1989.9999999999984</v>
+        <v>10.000000000001563</v>
       </c>
       <c r="W35" s="5">
-        <v>1760.0000000000016</v>
+        <v>0</v>
       </c>
       <c r="X35" s="5">
-        <v>3489.9999999999986</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="5">
-        <v>1649.9999999999986</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <v>970.00000000000239</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="5">
-        <v>1810.0000000000023</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="5">
-        <v>2539.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="5">
-        <v>1739.999999999995</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="5">
-        <v>1490.000000000002</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="5">
-        <v>1880.0000000000025</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="5">
-        <v>1859.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="5">
-        <v>1810.0000000000023</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="5">
-        <v>1139.9999999999934</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="6">
-        <v>560.00000000000227</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
+    <row r="36" spans="1:35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" s="5">
-        <v>0</v>
+        <v>19.999999999999794</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="G36" s="5">
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>320</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="I36" s="5">
-        <v>259.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5">
-        <v>90.000000000000085</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>290.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>349.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="N36" s="5">
-        <v>160.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="O36" s="5">
-        <v>359.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
-        <v>450.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <v>349.99999999999966</v>
+        <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>310.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="S36" s="5">
-        <v>310.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="T36" s="5">
-        <v>900.00000000000034</v>
+        <v>0</v>
       </c>
       <c r="U36" s="5">
-        <v>349.99999999999966</v>
+        <v>0</v>
       </c>
       <c r="V36" s="5">
-        <v>280.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="W36" s="5">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="X36" s="5">
-        <v>839.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="5">
-        <v>410.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="5">
-        <v>219.99999999999974</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="5">
-        <v>280.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="5">
-        <v>399.99999999999949</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="5">
-        <v>200.00000000000108</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="5">
-        <v>199.99999999999929</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="5">
-        <v>349.99999999999966</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="5">
-        <v>280.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="5">
-        <v>80.000000000000071</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="6">
-        <v>39.999999999999147</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
+    <row r="37" spans="1:35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5">
-        <v>0</v>
+        <v>1580.0000000000055</v>
       </c>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>1469.9999999999989</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>519.99999999999602</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
+        <v>350.00000000000142</v>
       </c>
       <c r="H37" s="5">
-        <v>2750</v>
+        <v>1500</v>
       </c>
       <c r="I37" s="5">
-        <v>870.00000000000011</v>
+        <v>210.00000000000085</v>
       </c>
       <c r="J37" s="5">
-        <v>750</v>
+        <v>770.00000000000318</v>
       </c>
       <c r="K37" s="5">
-        <v>1540</v>
+        <v>309.99999999999517</v>
       </c>
       <c r="L37" s="5">
-        <v>1889.9999999999998</v>
+        <v>649.99999999999864</v>
       </c>
       <c r="M37" s="5">
-        <v>850.00000000000057</v>
+        <v>160.00000000000369</v>
       </c>
       <c r="N37" s="5">
-        <v>719.99999999999886</v>
+        <v>30.000000000001137</v>
       </c>
       <c r="O37" s="5">
-        <v>1240.0000000000002</v>
+        <v>89.999999999996305</v>
       </c>
       <c r="P37" s="5">
-        <v>3620.0000000000009</v>
+        <v>260.00000000000512</v>
       </c>
       <c r="Q37" s="5">
-        <v>740.00000000000023</v>
+        <v>69.999999999993179</v>
       </c>
       <c r="R37" s="5">
-        <v>740.00000000000023</v>
+        <v>40.000000000006253</v>
       </c>
       <c r="S37" s="5">
-        <v>640.00000000000057</v>
+        <v>29.999999999994031</v>
       </c>
       <c r="T37" s="5">
-        <v>3209.9999999999973</v>
+        <v>110.00000000000654</v>
       </c>
       <c r="U37" s="5">
-        <v>880.0000000000025</v>
+        <v>9.9999999999980105</v>
       </c>
       <c r="V37" s="5">
-        <v>910.00000000000011</v>
+        <v>9.9999999999980105</v>
       </c>
       <c r="W37" s="5">
-        <v>929.99999999999977</v>
+        <v>0</v>
       </c>
       <c r="X37" s="5">
-        <v>3160</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="5">
-        <v>1289.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="5">
-        <v>739.99999999999841</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="5">
-        <v>1150.000000000002</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="5">
-        <v>2379.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="5">
-        <v>1020.0000000000032</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="5">
-        <v>759.99999999999795</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="5">
-        <v>879.99999999999545</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="5">
-        <v>1980.0000000000041</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="5">
-        <v>990.00000000000205</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="5">
-        <v>570.00000000000023</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="6">
-        <v>419.9999999999946</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
+    <row r="38" spans="1:35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>179.99999999999972</v>
       </c>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>240.00000000000023</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>80.000000000000071</v>
       </c>
       <c r="G38" s="5">
-        <v>0</v>
+        <v>79.999999999999176</v>
       </c>
       <c r="H38" s="5">
-        <v>600</v>
+        <v>100.00000000000054</v>
       </c>
       <c r="I38" s="5">
-        <v>190.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>459.99999999999994</v>
+        <v>950.00000000000023</v>
       </c>
       <c r="K38" s="5">
-        <v>940</v>
+        <v>70.000000000000284</v>
       </c>
       <c r="L38" s="5">
-        <v>660.00000000000011</v>
+        <v>129.99999999999901</v>
       </c>
       <c r="M38" s="5">
-        <v>870.00000000000011</v>
+        <v>30.000000000001137</v>
       </c>
       <c r="N38" s="5">
-        <v>390.00000000000011</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="O38" s="5">
-        <v>639.99999999999966</v>
+        <v>29.999999999999361</v>
       </c>
       <c r="P38" s="5">
-        <v>1320.0000000000002</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="Q38" s="5">
-        <v>669.99999999999989</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="R38" s="5">
-        <v>450.00000000000017</v>
+        <v>10.000000000001563</v>
       </c>
       <c r="S38" s="5">
-        <v>429.99999999999972</v>
+        <v>9.9999999999997868</v>
       </c>
       <c r="T38" s="5">
-        <v>1600.0000000000005</v>
+        <v>19.999999999999574</v>
       </c>
       <c r="U38" s="5">
-        <v>519.99999999999955</v>
+        <v>0</v>
       </c>
       <c r="V38" s="5">
-        <v>640.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="W38" s="5">
-        <v>1319.9999999999984</v>
+        <v>0</v>
       </c>
       <c r="X38" s="5">
-        <v>1760.0000000000016</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="5">
-        <v>629.99999999999898</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="5">
-        <v>339.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="5">
-        <v>780.00000000000114</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="5">
-        <v>660.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="5">
-        <v>719.99999999999886</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="5">
-        <v>609.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="5">
-        <v>699.99999999999932</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="5">
-        <v>420.00000000000171</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="5">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="6">
-        <v>109.99999999999943</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5">
-        <v>59.999999999998721</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5">
-        <v>1690.0000000000014</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
-        <v>289.99999999999915</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>230.00000000000043</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5">
+        <v>890</v>
+      </c>
+      <c r="I39" s="5">
+        <v>220.00000000000009</v>
+      </c>
+      <c r="J39" s="5">
+        <v>119.99999999999989</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="5">
+        <v>790</v>
+      </c>
+      <c r="M39" s="5">
+        <v>299.99999999999983</v>
+      </c>
+      <c r="N39" s="5">
         <v>250</v>
       </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
       <c r="O39" s="5">
-        <v>0</v>
+        <v>590.00000000000034</v>
       </c>
       <c r="P39" s="5">
-        <v>0</v>
+        <v>950.00000000000023</v>
       </c>
       <c r="Q39" s="5">
-        <v>0</v>
+        <v>469.99999999999977</v>
       </c>
       <c r="R39" s="5">
-        <v>0</v>
+        <v>389.99999999999966</v>
       </c>
       <c r="S39" s="5">
-        <v>0</v>
+        <v>520.00000000000045</v>
       </c>
       <c r="T39" s="5">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <v>339.99999999999989</v>
       </c>
       <c r="V39" s="5">
-        <v>0</v>
+        <v>350.00000000000051</v>
       </c>
       <c r="W39" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X39" s="5">
-        <v>0</v>
+        <v>1219.9999999999989</v>
       </c>
       <c r="Y39" s="5">
-        <v>0</v>
+        <v>30.000000000001137</v>
       </c>
       <c r="Z39" s="5">
-        <v>0</v>
+        <v>259.99999999999977</v>
       </c>
       <c r="AA39" s="5">
-        <v>0</v>
+        <v>469.99999999999886</v>
       </c>
       <c r="AB39" s="5">
-        <v>0</v>
+        <v>820.00000000000023</v>
       </c>
       <c r="AC39" s="5">
-        <v>269.99999999999955</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="5">
         <v>0</v>
@@ -4614,62 +4602,62 @@
         <v>0</v>
       </c>
       <c r="AF39" s="5">
-        <v>0</v>
+        <v>169.99999999999994</v>
       </c>
       <c r="AG39" s="5">
-        <v>0</v>
+        <v>280.00000000000114</v>
       </c>
       <c r="AH39" s="5">
-        <v>0</v>
+        <v>119.99999999999922</v>
       </c>
       <c r="AI39" s="6">
-        <v>0</v>
+        <v>70.000000000000284</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" s="5">
-        <v>309.99999999999875</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>100.00000000000142</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
-        <v>79.999999999998295</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>39.999999999999147</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>80.000000000001847</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5">
-        <v>29.999999999997584</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5">
-        <v>20.000000000003126</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L40" s="5">
-        <v>0</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="M40" s="5">
         <v>0</v>
       </c>
       <c r="N40" s="5">
-        <v>0</v>
+        <v>9.9999999999999947</v>
       </c>
       <c r="O40" s="5">
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <v>0</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="Q40" s="5">
         <v>0</v>
@@ -4681,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5">
-        <v>0</v>
+        <v>9.9999999999999947</v>
       </c>
       <c r="U40" s="5">
         <v>0</v>
@@ -4693,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="X40" s="5">
-        <v>0</v>
+        <v>9.9999999999999947</v>
       </c>
       <c r="Y40" s="5">
         <v>0</v>
       </c>
       <c r="Z40" s="5">
-        <v>0</v>
+        <v>10.000000000000009</v>
       </c>
       <c r="AA40" s="5">
         <v>0</v>
       </c>
       <c r="AB40" s="5">
-        <v>0</v>
+        <v>9.9999999999999947</v>
       </c>
       <c r="AC40" s="5">
         <v>0</v>
@@ -4720,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="5">
-        <v>0</v>
+        <v>9.9999999999999947</v>
       </c>
       <c r="AH40" s="5">
         <v>0</v>
@@ -4729,1483 +4717,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
+    <row r="41" spans="1:35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5">
-        <v>49.999999999997158</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2430</v>
+      </c>
+      <c r="I41" s="5">
+        <v>730</v>
+      </c>
+      <c r="J41" s="5">
+        <v>389.99999999999966</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1259.9999999999998</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2270.0000000000005</v>
+      </c>
+      <c r="M41" s="5">
+        <v>710</v>
+      </c>
+      <c r="N41" s="5">
+        <v>600.00000000000057</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1170</v>
+      </c>
+      <c r="P41" s="5">
+        <v>2889.9999999999986</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>610.00000000000125</v>
+      </c>
+      <c r="R41" s="5">
+        <v>629.99999999999898</v>
+      </c>
+      <c r="S41" s="5">
+        <v>910.00000000000011</v>
+      </c>
+      <c r="T41" s="5">
+        <v>2939.9999999999995</v>
+      </c>
+      <c r="U41" s="5">
+        <v>679.99999999999977</v>
+      </c>
+      <c r="V41" s="5">
+        <v>470.00000000000239</v>
+      </c>
+      <c r="W41" s="5">
+        <v>439.99999999999773</v>
+      </c>
+      <c r="X41" s="5">
+        <v>3230.0000000000005</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>910.00000000000011</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>510.00000000000159</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>709.99999999999727</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>2340</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>690.00000000000125</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>350.00000000000142</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>550.00000000000068</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>1769.9999999999995</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>849.99999999999784</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>350.00000000000142</v>
+      </c>
+      <c r="AI41" s="6">
+        <v>149.99999999999858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="16" thickBot="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>220</v>
+      </c>
+      <c r="I42" s="7">
+        <v>79.999999999999986</v>
+      </c>
+      <c r="J42" s="7">
+        <v>60</v>
+      </c>
+      <c r="K42" s="7">
+        <v>620</v>
+      </c>
+      <c r="L42" s="7">
+        <v>340.00000000000006</v>
+      </c>
+      <c r="M42" s="7">
+        <v>149.99999999999991</v>
+      </c>
+      <c r="N42" s="7">
+        <v>80.000000000000071</v>
+      </c>
+      <c r="O42" s="7">
+        <v>260</v>
+      </c>
+      <c r="P42" s="7">
+        <v>439.99999999999994</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>149.99999999999991</v>
+      </c>
+      <c r="R42" s="7">
+        <v>120.00000000000011</v>
+      </c>
+      <c r="S42" s="7">
+        <v>149.99999999999991</v>
+      </c>
+      <c r="T42" s="7">
+        <v>459.99999999999994</v>
+      </c>
+      <c r="U42" s="7">
+        <v>129.99999999999989</v>
+      </c>
+      <c r="V42" s="7">
+        <v>160.00000000000014</v>
+      </c>
+      <c r="W42" s="7">
+        <v>220.0000000000002</v>
+      </c>
+      <c r="X42" s="7">
+        <v>529.99999999999977</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
         <v>70.000000000000284</v>
       </c>
-      <c r="F41" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="G41" s="5">
-        <v>10.000000000001563</v>
-      </c>
-      <c r="H41" s="5">
-        <v>50.000000000000711</v>
-      </c>
-      <c r="I41" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="J41" s="5">
-        <v>10.000000000001563</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="5">
-        <v>229.99999999999864</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1120.0000000000009</v>
-      </c>
-      <c r="F42" s="5">
-        <v>279.99999999999937</v>
-      </c>
-      <c r="G42" s="5">
-        <v>150.00000000000034</v>
-      </c>
-      <c r="H42" s="5">
-        <v>169.99999999999994</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="5">
-        <v>169.99999999999994</v>
-      </c>
-      <c r="E43" s="5">
-        <v>330.00000000000006</v>
-      </c>
-      <c r="F43" s="5">
-        <v>130.00000000000011</v>
-      </c>
-      <c r="G43" s="5">
-        <v>229.99999999999977</v>
-      </c>
-      <c r="H43" s="5">
-        <v>390.00000000000011</v>
-      </c>
-      <c r="I43" s="5">
-        <v>109.99999999999987</v>
-      </c>
-      <c r="J43" s="5">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="K43" s="5">
-        <v>89.999999999999858</v>
-      </c>
-      <c r="L43" s="5">
-        <v>169.99999999999994</v>
-      </c>
-      <c r="M43" s="5">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1080</v>
-      </c>
-      <c r="O43" s="5">
-        <v>240.00000000000023</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>129.99999999999989</v>
-      </c>
-      <c r="R43" s="5">
-        <v>139.99999999999969</v>
-      </c>
-      <c r="S43" s="5">
-        <v>140.00000000000057</v>
-      </c>
-      <c r="T43" s="5">
-        <v>269.99999999999955</v>
-      </c>
-      <c r="U43" s="5">
-        <v>60.000000000000497</v>
-      </c>
-      <c r="V43" s="5">
-        <v>29.999999999999361</v>
-      </c>
-      <c r="W43" s="5">
-        <v>40.000000000000036</v>
-      </c>
-      <c r="X43" s="5">
-        <v>50.000000000000711</v>
-      </c>
-      <c r="Y43" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="Z43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="5">
-        <v>270</v>
-      </c>
-      <c r="E44" s="5">
-        <v>229.99999999999997</v>
-      </c>
-      <c r="F44" s="5">
-        <v>229.99999999999997</v>
-      </c>
-      <c r="G44" s="5">
-        <v>179.99999999999994</v>
-      </c>
-      <c r="H44" s="5">
-        <v>579.99999999999989</v>
-      </c>
-      <c r="I44" s="5">
-        <v>330.00000000000006</v>
-      </c>
-      <c r="J44" s="5">
-        <v>270</v>
-      </c>
-      <c r="K44" s="5">
-        <v>180.00000000000017</v>
-      </c>
-      <c r="L44" s="5">
-        <v>290.00000000000006</v>
-      </c>
-      <c r="M44" s="5">
-        <v>270</v>
-      </c>
-      <c r="N44" s="5">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="O44" s="5">
-        <v>209.99999999999997</v>
-      </c>
-      <c r="P44" s="5">
-        <v>410.00000000000011</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>240.00000000000023</v>
-      </c>
-      <c r="R44" s="5">
-        <v>169.99999999999994</v>
-      </c>
-      <c r="S44" s="5">
-        <v>89.999999999999858</v>
-      </c>
-      <c r="T44" s="5">
-        <v>280.00000000000023</v>
-      </c>
-      <c r="U44" s="5">
-        <v>89.999999999999858</v>
-      </c>
-      <c r="V44" s="5">
-        <v>49.999999999999822</v>
-      </c>
-      <c r="W44" s="5">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="X44" s="5">
-        <v>89.999999999999858</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>59.999999999999609</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>40.000000000000036</v>
-      </c>
-      <c r="AA44" s="5">
-        <v>30.000000000000249</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>30.000000000000249</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="5">
-        <v>140.00000000000011</v>
-      </c>
-      <c r="E45" s="5">
-        <v>69.999999999999844</v>
-      </c>
-      <c r="F45" s="5">
-        <v>110.0000000000001</v>
-      </c>
-      <c r="G45" s="5">
-        <v>79.999999999999844</v>
-      </c>
-      <c r="H45" s="5">
-        <v>260</v>
-      </c>
-      <c r="I45" s="5">
-        <v>30.000000000000028</v>
-      </c>
-      <c r="J45" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="K45" s="5">
-        <v>49.999999999999822</v>
-      </c>
-      <c r="L45" s="5">
-        <v>190.0000000000004</v>
-      </c>
-      <c r="M45" s="5">
-        <v>69.999999999999844</v>
-      </c>
-      <c r="N45" s="5">
-        <v>29.999999999999805</v>
-      </c>
-      <c r="O45" s="5">
-        <v>30.000000000000249</v>
-      </c>
-      <c r="P45" s="5">
-        <v>100.00000000000009</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>29.999999999999805</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="T45" s="5">
-        <v>20.000000000000018</v>
-      </c>
-      <c r="U45" s="5">
-        <v>10.000000000000231</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="Y45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>10.000000000000231</v>
-      </c>
-      <c r="AC45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="AF45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="5">
-        <v>60</v>
-      </c>
-      <c r="E46" s="5">
-        <v>140</v>
-      </c>
-      <c r="F46" s="5">
-        <v>70</v>
-      </c>
-      <c r="G46" s="5">
-        <v>40.000000000000036</v>
-      </c>
-      <c r="H46" s="5">
-        <v>159.99999999999991</v>
-      </c>
-      <c r="I46" s="5">
-        <v>200.00000000000006</v>
-      </c>
-      <c r="J46" s="5">
-        <v>59.999999999999943</v>
-      </c>
-      <c r="K46" s="5">
-        <v>70.000000000000057</v>
-      </c>
-      <c r="L46" s="5">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="M46" s="5">
-        <v>120.00000000000011</v>
-      </c>
-      <c r="N46" s="5">
-        <v>439.99999999999994</v>
-      </c>
-      <c r="O46" s="5">
-        <v>120.00000000000011</v>
-      </c>
-      <c r="P46" s="5">
-        <v>29.999999999999805</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>109.99999999999987</v>
-      </c>
-      <c r="R46" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="S46" s="5">
-        <v>50.00000000000027</v>
-      </c>
-      <c r="T46" s="5">
-        <v>139.99999999999969</v>
-      </c>
-      <c r="U46" s="5">
-        <v>50.00000000000027</v>
-      </c>
-      <c r="V46" s="5">
-        <v>29.999999999999805</v>
-      </c>
-      <c r="W46" s="5">
-        <v>20.000000000000018</v>
-      </c>
-      <c r="X46" s="5">
-        <v>20.000000000000018</v>
-      </c>
-      <c r="Y46" s="5">
-        <v>10.000000000000231</v>
-      </c>
-      <c r="Z46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5">
-        <v>669.99999999999818</v>
-      </c>
-      <c r="E47" s="5">
-        <v>980.00000000000045</v>
-      </c>
-      <c r="F47" s="5">
-        <v>399.99999999999858</v>
-      </c>
-      <c r="G47" s="5">
-        <v>310.00000000000227</v>
-      </c>
-      <c r="H47" s="5">
-        <v>359.99999999999943</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>59.999999999998721</v>
-      </c>
-      <c r="K47" s="5">
-        <v>140.00000000000057</v>
-      </c>
-      <c r="L47" s="5">
-        <v>170.00000000000171</v>
-      </c>
-      <c r="M47" s="5">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="N47" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="O47" s="5">
-        <v>39.999999999999147</v>
-      </c>
-      <c r="P47" s="5">
-        <v>50.000000000000711</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="R47" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="S47" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="T47" s="5">
-        <v>30.000000000001137</v>
-      </c>
-      <c r="U47" s="5">
-        <v>0</v>
-      </c>
-      <c r="V47" s="5">
-        <v>10.000000000001563</v>
-      </c>
-      <c r="W47" s="5">
-        <v>0</v>
-      </c>
-      <c r="X47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="5">
-        <v>19.999999999999794</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="5">
-        <v>0</v>
-      </c>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="5">
-        <v>0</v>
-      </c>
-      <c r="X48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1580.0000000000055</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1469.9999999999989</v>
-      </c>
-      <c r="F49" s="5">
-        <v>519.99999999999602</v>
-      </c>
-      <c r="G49" s="5">
-        <v>350.00000000000142</v>
-      </c>
-      <c r="H49" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I49" s="5">
-        <v>210.00000000000085</v>
-      </c>
-      <c r="J49" s="5">
-        <v>770.00000000000318</v>
-      </c>
-      <c r="K49" s="5">
-        <v>309.99999999999517</v>
-      </c>
-      <c r="L49" s="5">
-        <v>649.99999999999864</v>
-      </c>
-      <c r="M49" s="5">
-        <v>160.00000000000369</v>
-      </c>
-      <c r="N49" s="5">
-        <v>30.000000000001137</v>
-      </c>
-      <c r="O49" s="5">
-        <v>89.999999999996305</v>
-      </c>
-      <c r="P49" s="5">
-        <v>260.00000000000512</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>69.999999999993179</v>
-      </c>
-      <c r="R49" s="5">
-        <v>40.000000000006253</v>
-      </c>
-      <c r="S49" s="5">
-        <v>29.999999999994031</v>
-      </c>
-      <c r="T49" s="5">
-        <v>110.00000000000654</v>
-      </c>
-      <c r="U49" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="V49" s="5">
-        <v>9.9999999999980105</v>
-      </c>
-      <c r="W49" s="5">
-        <v>0</v>
-      </c>
-      <c r="X49" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="AA42" s="7">
         <v>179.99999999999972</v>
       </c>
-      <c r="E50" s="5">
-        <v>240.00000000000023</v>
-      </c>
-      <c r="F50" s="5">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="G50" s="5">
-        <v>79.999999999999176</v>
-      </c>
-      <c r="H50" s="5">
-        <v>100.00000000000054</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>950.00000000000023</v>
-      </c>
-      <c r="K50" s="5">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="L50" s="5">
-        <v>129.99999999999901</v>
-      </c>
-      <c r="M50" s="5">
-        <v>30.000000000001137</v>
-      </c>
-      <c r="N50" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="O50" s="5">
-        <v>29.999999999999361</v>
-      </c>
-      <c r="P50" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="R50" s="5">
-        <v>10.000000000001563</v>
-      </c>
-      <c r="S50" s="5">
-        <v>9.9999999999997868</v>
-      </c>
-      <c r="T50" s="5">
-        <v>19.999999999999574</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="5">
-        <v>0</v>
-      </c>
-      <c r="X50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>890</v>
-      </c>
-      <c r="I51" s="5">
-        <v>220.00000000000009</v>
-      </c>
-      <c r="J51" s="5">
-        <v>119.99999999999989</v>
-      </c>
-      <c r="K51" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L51" s="5">
-        <v>790</v>
-      </c>
-      <c r="M51" s="5">
-        <v>299.99999999999983</v>
-      </c>
-      <c r="N51" s="5">
-        <v>250</v>
-      </c>
-      <c r="O51" s="5">
-        <v>590.00000000000034</v>
-      </c>
-      <c r="P51" s="5">
-        <v>950.00000000000023</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>469.99999999999977</v>
-      </c>
-      <c r="R51" s="5">
-        <v>389.99999999999966</v>
-      </c>
-      <c r="S51" s="5">
-        <v>520.00000000000045</v>
-      </c>
-      <c r="T51" s="5">
-        <v>1040</v>
-      </c>
-      <c r="U51" s="5">
-        <v>339.99999999999989</v>
-      </c>
-      <c r="V51" s="5">
-        <v>350.00000000000051</v>
-      </c>
-      <c r="W51" s="5">
-        <v>500</v>
-      </c>
-      <c r="X51" s="5">
-        <v>1219.9999999999989</v>
-      </c>
-      <c r="Y51" s="5">
-        <v>30.000000000001137</v>
-      </c>
-      <c r="Z51" s="5">
-        <v>259.99999999999977</v>
-      </c>
-      <c r="AA51" s="5">
-        <v>469.99999999999886</v>
-      </c>
-      <c r="AB51" s="5">
-        <v>820.00000000000023</v>
-      </c>
-      <c r="AC51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="5">
-        <v>169.99999999999994</v>
-      </c>
-      <c r="AG51" s="5">
-        <v>280.00000000000114</v>
-      </c>
-      <c r="AH51" s="5">
-        <v>119.99999999999922</v>
-      </c>
-      <c r="AI51" s="6">
-        <v>70.000000000000284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5">
-        <v>40</v>
-      </c>
-      <c r="L52" s="5">
-        <v>10.000000000000002</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5">
-        <v>9.9999999999999947</v>
-      </c>
-      <c r="O52" s="5">
-        <v>0</v>
-      </c>
-      <c r="P52" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5">
-        <v>0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>9.9999999999999947</v>
-      </c>
-      <c r="U52" s="5">
-        <v>0</v>
-      </c>
-      <c r="V52" s="5">
-        <v>0</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="5">
-        <v>9.9999999999999947</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="5">
-        <v>10.000000000000009</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>9.9999999999999947</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="5">
-        <v>9.9999999999999947</v>
-      </c>
-      <c r="AH52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2430</v>
-      </c>
-      <c r="I53" s="5">
-        <v>730</v>
-      </c>
-      <c r="J53" s="5">
-        <v>389.99999999999966</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1259.9999999999998</v>
-      </c>
-      <c r="L53" s="5">
-        <v>2270.0000000000005</v>
-      </c>
-      <c r="M53" s="5">
-        <v>710</v>
-      </c>
-      <c r="N53" s="5">
-        <v>600.00000000000057</v>
-      </c>
-      <c r="O53" s="5">
-        <v>1170</v>
-      </c>
-      <c r="P53" s="5">
-        <v>2889.9999999999986</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>610.00000000000125</v>
-      </c>
-      <c r="R53" s="5">
-        <v>629.99999999999898</v>
-      </c>
-      <c r="S53" s="5">
-        <v>910.00000000000011</v>
-      </c>
-      <c r="T53" s="5">
-        <v>2939.9999999999995</v>
-      </c>
-      <c r="U53" s="5">
-        <v>679.99999999999977</v>
-      </c>
-      <c r="V53" s="5">
-        <v>470.00000000000239</v>
-      </c>
-      <c r="W53" s="5">
-        <v>439.99999999999773</v>
-      </c>
-      <c r="X53" s="5">
-        <v>3230.0000000000005</v>
-      </c>
-      <c r="Y53" s="5">
-        <v>910.00000000000011</v>
-      </c>
-      <c r="Z53" s="5">
-        <v>510.00000000000159</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>709.99999999999727</v>
-      </c>
-      <c r="AB53" s="5">
-        <v>2340</v>
-      </c>
-      <c r="AC53" s="5">
-        <v>690.00000000000125</v>
-      </c>
-      <c r="AD53" s="5">
-        <v>350.00000000000142</v>
-      </c>
-      <c r="AE53" s="5">
-        <v>550.00000000000068</v>
-      </c>
-      <c r="AF53" s="5">
-        <v>1769.9999999999995</v>
-      </c>
-      <c r="AG53" s="5">
-        <v>849.99999999999784</v>
-      </c>
-      <c r="AH53" s="5">
-        <v>350.00000000000142</v>
-      </c>
-      <c r="AI53" s="6">
-        <v>149.99999999999858</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="7">
-        <v>0</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>220</v>
-      </c>
-      <c r="I54" s="7">
-        <v>79.999999999999986</v>
-      </c>
-      <c r="J54" s="7">
-        <v>60</v>
-      </c>
-      <c r="K54" s="7">
-        <v>620</v>
-      </c>
-      <c r="L54" s="7">
-        <v>340.00000000000006</v>
-      </c>
-      <c r="M54" s="7">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="N54" s="7">
-        <v>80.000000000000071</v>
-      </c>
-      <c r="O54" s="7">
-        <v>260</v>
-      </c>
-      <c r="P54" s="7">
-        <v>439.99999999999994</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="R54" s="7">
-        <v>120.00000000000011</v>
-      </c>
-      <c r="S54" s="7">
-        <v>149.99999999999991</v>
-      </c>
-      <c r="T54" s="7">
-        <v>459.99999999999994</v>
-      </c>
-      <c r="U54" s="7">
-        <v>129.99999999999989</v>
-      </c>
-      <c r="V54" s="7">
-        <v>160.00000000000014</v>
-      </c>
-      <c r="W54" s="7">
-        <v>220.0000000000002</v>
-      </c>
-      <c r="X54" s="7">
-        <v>529.99999999999977</v>
-      </c>
-      <c r="Y54" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="7">
-        <v>70.000000000000284</v>
-      </c>
-      <c r="AA54" s="7">
-        <v>179.99999999999972</v>
-      </c>
-      <c r="AB54" s="7">
+      <c r="AB42" s="7">
         <v>270.00000000000045</v>
       </c>
-      <c r="AC54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="7">
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7">
         <v>69.999999999999403</v>
       </c>
-      <c r="AI54" s="8">
+      <c r="AI42" s="8">
         <v>20.000000000000462</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="22">
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="A3:A22"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BackEnd/public/table2.xlsx
+++ b/BackEnd/public/table2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i_rin/Desktop/tablevis/BackEnd/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\tablevis\BackEnd\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B31EE-68FA-A24E-A439-58B578150AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E9C23-9E0F-4862-8EEC-8921C0168E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{2EFAC2C9-10E9-47BE-B617-40AF9808DAEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>2013</t>
   </si>
@@ -115,12 +115,16 @@
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Sony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +267,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,13 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,17 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,73 +619,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D183D6-0C77-44FB-8CFA-EC3E3E690E7B}">
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="14"/>
     </row>
-    <row r="2" spans="1:35" ht="16" thickBot="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+    <row r="2" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -779,11 +783,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -886,9 +890,9 @@
         <v>9.9999999999980105</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
@@ -989,9 +993,9 @@
         <v>19.999999999999574</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1092,9 +1096,9 @@
         <v>70.000000000000284</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1195,9 +1199,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1300,9 +1304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1403,9 +1407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1506,9 +1510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1609,9 +1613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1714,9 +1718,9 @@
         <v>1740.000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1817,9 +1821,9 @@
         <v>1259.9999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1920,9 +1924,9 @@
         <v>2549.9999999999973</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2023,9 +2027,9 @@
         <v>900.00000000000034</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2128,9 +2132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2231,9 +2235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2334,9 +2338,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2437,9 +2441,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2542,9 +2546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2645,9 +2649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2748,9 +2752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
@@ -2851,9 +2855,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2956,9 +2962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
@@ -3059,9 +3065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
@@ -3162,9 +3168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
@@ -3265,9 +3271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3370,9 +3376,9 @@
         <v>560.00000000000227</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3473,9 +3479,9 @@
         <v>39.999999999999147</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
@@ -3576,9 +3582,9 @@
         <v>419.9999999999946</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
@@ -3679,9 +3685,9 @@
         <v>109.99999999999943</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3784,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
         <v>26</v>
       </c>
@@ -3887,9 +3893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>15</v>
       </c>
@@ -3990,9 +3996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
@@ -4093,11 +4099,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -4200,9 +4206,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>26</v>
       </c>
@@ -4303,9 +4309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
@@ -4406,9 +4412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
@@ -4509,9 +4515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4614,9 +4620,9 @@
         <v>70.000000000000284</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>26</v>
       </c>
@@ -4717,9 +4723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
@@ -4820,9 +4826,9 @@
         <v>149.99999999999858</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="16" thickBot="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="20"/>
+    <row r="42" spans="1:35" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
@@ -4925,13 +4931,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4947,6 +4946,13 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
